--- a/Summaries/I1/Milan_Juventus_adv.xlsx
+++ b/Summaries/I1/Milan_Juventus_adv.xlsx
@@ -511,112 +511,115 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1408</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>707</t>
-  </si>
-  <si>
-    <t>2029</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>1858</t>
+    <t>711</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>655</t>
   </si>
   <si>
     <t>2043</t>
   </si>
   <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1722</t>
-  </si>
-  <si>
-    <t>2055</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>1341</t>
-  </si>
-  <si>
-    <t>2147</t>
+    <t>304</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>2162</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>897</t>
-  </si>
-  <si>
-    <t>1149</t>
-  </si>
-  <si>
-    <t>1449</t>
-  </si>
-  <si>
-    <t>1538</t>
-  </si>
-  <si>
-    <t>1692</t>
-  </si>
-  <si>
-    <t>2039</t>
-  </si>
-  <si>
-    <t>2233</t>
+    <t>198</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>2053</t>
+  </si>
+  <si>
+    <t>2248</t>
   </si>
   <si>
     <t>29</t>
@@ -625,34 +628,34 @@
     <t>100</t>
   </si>
   <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>1093</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>1645</t>
-  </si>
-  <si>
-    <t>1780</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>2208</t>
+    <t>516</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1338</t>
+  </si>
+  <si>
+    <t>1656</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
+    <t>2183</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>Youssouf Fofana</t>
   </si>
   <si>
     <t>Álvaro Morata</t>
@@ -670,9 +673,6 @@
     <t>Emerson</t>
   </si>
   <si>
-    <t>Youssouf Fofana</t>
-  </si>
-  <si>
     <t>Filippo Terracciano</t>
   </si>
   <si>
@@ -691,6 +691,9 @@
     <t>Matteo Gabbia</t>
   </si>
   <si>
+    <t>Theo Hernández</t>
+  </si>
+  <si>
     <t>Luka Jović</t>
   </si>
   <si>
@@ -715,6 +718,9 @@
     <t>Federico Gatti</t>
   </si>
   <si>
+    <t>Teun Koopmeiners</t>
+  </si>
+  <si>
     <t>Douglas Luiz</t>
   </si>
   <si>
@@ -742,9 +748,6 @@
     <t>Samuel Chukwueze</t>
   </si>
   <si>
-    <t>Theo Hernández</t>
-  </si>
-  <si>
     <t>Rafael Leão</t>
   </si>
   <si>
@@ -781,9 +784,6 @@
     <t>Pierre Kalulu</t>
   </si>
   <si>
-    <t>Teun Koopmeiners</t>
-  </si>
-  <si>
     <t>Samuel Mbangula</t>
   </si>
   <si>
@@ -799,6 +799,9 @@
     <t>Kenan Yıldız</t>
   </si>
   <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
     <t>es ESP</t>
   </si>
   <si>
@@ -811,9 +814,6 @@
     <t>br BRA</t>
   </si>
   <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
     <t>rs SRB</t>
   </si>
   <si>
@@ -856,15 +856,15 @@
     <t>tr TUR</t>
   </si>
   <si>
+    <t>MF</t>
+  </si>
+  <si>
     <t>FW,MF</t>
   </si>
   <si>
     <t>FW</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
     <t>DF</t>
   </si>
   <si>
@@ -880,148 +880,151 @@
     <t>it Serie A</t>
   </si>
   <si>
-    <t>32-017</t>
-  </si>
-  <si>
-    <t>21-331</t>
-  </si>
-  <si>
-    <t>23-271</t>
-  </si>
-  <si>
-    <t>26-306</t>
-  </si>
-  <si>
-    <t>25-300</t>
-  </si>
-  <si>
-    <t>25-304</t>
-  </si>
-  <si>
-    <t>21-275</t>
-  </si>
-  <si>
-    <t>27-236</t>
-  </si>
-  <si>
-    <t>24-263</t>
-  </si>
-  <si>
-    <t>21-235</t>
-  </si>
-  <si>
-    <t>23-228</t>
-  </si>
-  <si>
-    <t>25-019</t>
-  </si>
-  <si>
-    <t>26-322</t>
-  </si>
-  <si>
-    <t>28-291</t>
-  </si>
-  <si>
-    <t>29-129</t>
-  </si>
-  <si>
-    <t>23-169</t>
-  </si>
-  <si>
-    <t>26-103</t>
-  </si>
-  <si>
-    <t>26-326</t>
-  </si>
-  <si>
-    <t>33-117</t>
-  </si>
-  <si>
-    <t>26-138</t>
-  </si>
-  <si>
-    <t>26-184</t>
-  </si>
-  <si>
-    <t>26-073</t>
-  </si>
-  <si>
-    <t>24-286</t>
-  </si>
-  <si>
-    <t>27-038</t>
-  </si>
-  <si>
-    <t>18-316</t>
-  </si>
-  <si>
-    <t>26-344</t>
-  </si>
-  <si>
-    <t>27-339</t>
-  </si>
-  <si>
-    <t>16-244</t>
-  </si>
-  <si>
-    <t>25-171</t>
-  </si>
-  <si>
-    <t>27-034</t>
-  </si>
-  <si>
-    <t>25-152</t>
-  </si>
-  <si>
-    <t>21-346</t>
-  </si>
-  <si>
-    <t>24-169</t>
-  </si>
-  <si>
-    <t>26-052</t>
-  </si>
-  <si>
-    <t>23-093</t>
-  </si>
-  <si>
-    <t>19-303</t>
-  </si>
-  <si>
-    <t>18-181</t>
-  </si>
-  <si>
-    <t>19-257</t>
-  </si>
-  <si>
-    <t>23-306</t>
-  </si>
-  <si>
-    <t>27-105</t>
-  </si>
-  <si>
-    <t>26-217</t>
-  </si>
-  <si>
-    <t>24-157</t>
-  </si>
-  <si>
-    <t>26-255</t>
-  </si>
-  <si>
-    <t>20-298</t>
-  </si>
-  <si>
-    <t>31-365</t>
-  </si>
-  <si>
-    <t>20-307</t>
-  </si>
-  <si>
-    <t>24-261</t>
-  </si>
-  <si>
-    <t>19-189</t>
+    <t>25-311</t>
+  </si>
+  <si>
+    <t>32-024</t>
+  </si>
+  <si>
+    <t>21-338</t>
+  </si>
+  <si>
+    <t>23-278</t>
+  </si>
+  <si>
+    <t>26-313</t>
+  </si>
+  <si>
+    <t>25-307</t>
+  </si>
+  <si>
+    <t>21-282</t>
+  </si>
+  <si>
+    <t>27-243</t>
+  </si>
+  <si>
+    <t>24-270</t>
+  </si>
+  <si>
+    <t>21-242</t>
+  </si>
+  <si>
+    <t>23-235</t>
+  </si>
+  <si>
+    <t>25-026</t>
+  </si>
+  <si>
+    <t>27-041</t>
+  </si>
+  <si>
+    <t>26-329</t>
+  </si>
+  <si>
+    <t>28-298</t>
+  </si>
+  <si>
+    <t>29-136</t>
+  </si>
+  <si>
+    <t>23-176</t>
+  </si>
+  <si>
+    <t>26-110</t>
+  </si>
+  <si>
+    <t>26-333</t>
+  </si>
+  <si>
+    <t>33-124</t>
+  </si>
+  <si>
+    <t>26-145</t>
+  </si>
+  <si>
+    <t>26-262</t>
+  </si>
+  <si>
+    <t>26-191</t>
+  </si>
+  <si>
+    <t>26-080</t>
+  </si>
+  <si>
+    <t>24-293</t>
+  </si>
+  <si>
+    <t>27-045</t>
+  </si>
+  <si>
+    <t>18-323</t>
+  </si>
+  <si>
+    <t>26-351</t>
+  </si>
+  <si>
+    <t>27-346</t>
+  </si>
+  <si>
+    <t>16-251</t>
+  </si>
+  <si>
+    <t>25-178</t>
+  </si>
+  <si>
+    <t>25-159</t>
+  </si>
+  <si>
+    <t>21-353</t>
+  </si>
+  <si>
+    <t>24-176</t>
+  </si>
+  <si>
+    <t>26-059</t>
+  </si>
+  <si>
+    <t>23-100</t>
+  </si>
+  <si>
+    <t>19-310</t>
+  </si>
+  <si>
+    <t>18-188</t>
+  </si>
+  <si>
+    <t>19-264</t>
+  </si>
+  <si>
+    <t>23-313</t>
+  </si>
+  <si>
+    <t>27-112</t>
+  </si>
+  <si>
+    <t>26-224</t>
+  </si>
+  <si>
+    <t>24-164</t>
+  </si>
+  <si>
+    <t>20-305</t>
+  </si>
+  <si>
+    <t>32-006</t>
+  </si>
+  <si>
+    <t>20-314</t>
+  </si>
+  <si>
+    <t>24-268</t>
+  </si>
+  <si>
+    <t>19-196</t>
+  </si>
+  <si>
+    <t>1999</t>
   </si>
   <si>
     <t>1992</t>
@@ -1034,9 +1037,6 @@
   </si>
   <si>
     <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
   </si>
   <si>
     <t>2003</t>
@@ -3827,7 +3827,7 @@
         <v>165</v>
       </c>
       <c r="B2" t="n">
-        <v>1428.0</v>
+        <v>726.0</v>
       </c>
       <c r="C2" t="s">
         <v>213</v>
@@ -3851,7 +3851,7 @@
         <v>336</v>
       </c>
       <c r="J2" t="n">
-        <v>5.9</v>
+        <v>8.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.0</v>
@@ -3863,23 +3863,23 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S2" t="n">
         <v>7.0</v>
       </c>
-      <c r="R2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T2" t="n">
         <v>0.0</v>
       </c>
@@ -3890,16 +3890,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>14.0</v>
+        <v>36.0</v>
       </c>
       <c r="X2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>33.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="3">
@@ -3907,7 +3907,7 @@
         <v>166</v>
       </c>
       <c r="B3" t="n">
-        <v>465.0</v>
+        <v>1438.0</v>
       </c>
       <c r="C3" t="s">
         <v>214</v>
@@ -3919,7 +3919,7 @@
         <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>287</v>
@@ -3931,55 +3931,55 @@
         <v>337</v>
       </c>
       <c r="J3" t="n">
-        <v>4.0</v>
+        <v>5.9</v>
       </c>
       <c r="K3" t="n">
         <v>3.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="O3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>10.0</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="4">
@@ -3987,7 +3987,7 @@
         <v>167</v>
       </c>
       <c r="B4" t="n">
-        <v>690.0</v>
+        <v>466.0</v>
       </c>
       <c r="C4" t="s">
         <v>215</v>
@@ -4011,34 +4011,34 @@
         <v>338</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N4" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="O4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>3.0</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S4" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
@@ -4050,16 +4050,16 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -4067,16 +4067,16 @@
         <v>168</v>
       </c>
       <c r="B5" t="n">
-        <v>1205.0</v>
+        <v>694.0</v>
       </c>
       <c r="C5" t="s">
         <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
         <v>96</v>
@@ -4091,7 +4091,7 @@
         <v>339</v>
       </c>
       <c r="J5" t="n">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
         <v>3.0</v>
@@ -4103,22 +4103,22 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="O5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="P5" t="n">
         <v>0.0</v>
       </c>
       <c r="Q5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.0</v>
       </c>
-      <c r="R5" t="n">
-        <v>5.0</v>
-      </c>
       <c r="S5" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -4130,16 +4130,16 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
       <c r="X5" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>56.3</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="6">
@@ -4147,7 +4147,7 @@
         <v>169</v>
       </c>
       <c r="B6" t="n">
-        <v>666.0</v>
+        <v>1212.0</v>
       </c>
       <c r="C6" t="s">
         <v>217</v>
@@ -4156,10 +4156,10 @@
         <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>287</v>
@@ -4171,10 +4171,10 @@
         <v>340</v>
       </c>
       <c r="J6" t="n">
-        <v>6.7</v>
+        <v>9.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
@@ -4183,23 +4183,23 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="O6" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="P6" t="n">
         <v>0.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>19.0</v>
       </c>
-      <c r="R6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>10.0</v>
-      </c>
       <c r="T6" t="n">
         <v>0.0</v>
       </c>
@@ -4210,16 +4210,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="X6" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>68.8</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="7">
@@ -4227,7 +4227,7 @@
         <v>170</v>
       </c>
       <c r="B7" t="n">
-        <v>722.0</v>
+        <v>670.0</v>
       </c>
       <c r="C7" t="s">
         <v>218</v>
@@ -4236,7 +4236,7 @@
         <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F7" t="s">
         <v>94</v>
@@ -4248,10 +4248,10 @@
         <v>293</v>
       </c>
       <c r="I7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.0</v>
@@ -4263,22 +4263,22 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="O7" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="P7" t="n">
         <v>0.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="R7" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="S7" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -4290,16 +4290,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y7" t="n">
         <v>8.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.1</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="8">
@@ -4307,13 +4307,13 @@
         <v>171</v>
       </c>
       <c r="B8" t="n">
-        <v>2056.0</v>
+        <v>2070.0</v>
       </c>
       <c r="C8" t="s">
         <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
         <v>283</v>
@@ -4387,13 +4387,13 @@
         <v>172</v>
       </c>
       <c r="B9" t="n">
-        <v>310.0</v>
+        <v>311.0</v>
       </c>
       <c r="C9" t="s">
         <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
         <v>283</v>
@@ -4467,13 +4467,13 @@
         <v>173</v>
       </c>
       <c r="B10" t="n">
-        <v>357.0</v>
+        <v>358.0</v>
       </c>
       <c r="C10" t="s">
         <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
         <v>284</v>
@@ -4491,7 +4491,7 @@
         <v>343</v>
       </c>
       <c r="J10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K10" t="n">
         <v>2.0</v>
@@ -4506,7 +4506,7 @@
         <v>11.0</v>
       </c>
       <c r="O10" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="P10" t="n">
         <v>2.0</v>
@@ -4515,10 +4515,10 @@
         <v>27.0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="S10" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -4530,7 +4530,7 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>39.0</v>
+        <v>47.0</v>
       </c>
       <c r="X10" t="n">
         <v>2.0</v>
@@ -4547,13 +4547,13 @@
         <v>174</v>
       </c>
       <c r="B11" t="n">
-        <v>1885.0</v>
+        <v>1897.0</v>
       </c>
       <c r="C11" t="s">
         <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
         <v>283</v>
@@ -4571,7 +4571,7 @@
         <v>341</v>
       </c>
       <c r="J11" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.0</v>
@@ -4610,16 +4610,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="X11" t="n">
         <v>1.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="12">
@@ -4627,16 +4627,16 @@
         <v>175</v>
       </c>
       <c r="B12" t="n">
-        <v>2070.0</v>
+        <v>2085.0</v>
       </c>
       <c r="C12" t="s">
         <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -4648,10 +4648,10 @@
         <v>298</v>
       </c>
       <c r="I12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J12" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.0</v>
@@ -4663,10 +4663,10 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="O12" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P12" t="n">
         <v>0.0</v>
@@ -4675,11 +4675,11 @@
         <v>3.0</v>
       </c>
       <c r="R12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.0</v>
       </c>
-      <c r="S12" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
@@ -4690,16 +4690,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="X12" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>63.6</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="13">
@@ -4707,13 +4707,13 @@
         <v>176</v>
       </c>
       <c r="B13" t="n">
-        <v>747.0</v>
+        <v>751.0</v>
       </c>
       <c r="C13" t="s">
         <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
         <v>283</v>
@@ -4728,7 +4728,7 @@
         <v>299</v>
       </c>
       <c r="I13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J13" t="n">
         <v>4.0</v>
@@ -4787,16 +4787,16 @@
         <v>177</v>
       </c>
       <c r="B14" t="n">
-        <v>1021.0</v>
+        <v>920.0</v>
       </c>
       <c r="C14" t="s">
         <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F14" t="s">
         <v>94</v>
@@ -4811,55 +4811,55 @@
         <v>342</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="K14" t="n">
         <v>1.0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.0</v>
+        <v>36.0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y14" t="n">
         <v>2.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>33.3</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="15">
@@ -4867,13 +4867,13 @@
         <v>178</v>
       </c>
       <c r="B15" t="n">
-        <v>1206.0</v>
+        <v>1026.0</v>
       </c>
       <c r="C15" t="s">
         <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
         <v>282</v>
@@ -4888,10 +4888,10 @@
         <v>301</v>
       </c>
       <c r="I15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J15" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="K15" t="n">
         <v>1.0</v>
@@ -4903,22 +4903,22 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="O15" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="R15" t="n">
         <v>1.0</v>
       </c>
       <c r="S15" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
@@ -4930,16 +4930,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="X15" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>57.1</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="16">
@@ -4947,16 +4947,16 @@
         <v>179</v>
       </c>
       <c r="B16" t="n">
-        <v>1258.0</v>
+        <v>1213.0</v>
       </c>
       <c r="C16" t="s">
         <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -4968,10 +4968,10 @@
         <v>302</v>
       </c>
       <c r="I16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J16" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
@@ -4983,22 +4983,22 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -5010,16 +5010,16 @@
         <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>100.0</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="17">
@@ -5027,16 +5027,16 @@
         <v>180</v>
       </c>
       <c r="B17" t="n">
-        <v>1633.0</v>
+        <v>1266.0</v>
       </c>
       <c r="C17" t="s">
         <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -5048,10 +5048,10 @@
         <v>303</v>
       </c>
       <c r="I17" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J17" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
@@ -5063,10 +5063,10 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="P17" t="n">
         <v>0.0</v>
@@ -5075,10 +5075,10 @@
         <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
@@ -5090,16 +5090,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="X17" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>63.2</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="18">
@@ -5107,16 +5107,16 @@
         <v>181</v>
       </c>
       <c r="B18" t="n">
-        <v>1745.0</v>
+        <v>1644.0</v>
       </c>
       <c r="C18" t="s">
         <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
         <v>94</v>
@@ -5131,37 +5131,37 @@
         <v>339</v>
       </c>
       <c r="J18" t="n">
-        <v>7.1</v>
+        <v>7.0</v>
       </c>
       <c r="K18" t="n">
         <v>1.0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="P18" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
@@ -5173,13 +5173,13 @@
         <v>26.0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="19">
@@ -5187,16 +5187,16 @@
         <v>182</v>
       </c>
       <c r="B19" t="n">
-        <v>2082.0</v>
+        <v>1756.0</v>
       </c>
       <c r="C19" t="s">
         <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
@@ -5208,22 +5208,22 @@
         <v>305</v>
       </c>
       <c r="I19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n">
         <v>6.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.0</v>
       </c>
       <c r="O19" t="n">
         <v>2.0</v>
@@ -5232,16 +5232,16 @@
         <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="R19" t="n">
         <v>7.0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
@@ -5250,16 +5250,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="X19" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -5267,19 +5267,19 @@
         <v>183</v>
       </c>
       <c r="B20" t="n">
-        <v>515.0</v>
+        <v>2097.0</v>
       </c>
       <c r="C20" t="s">
         <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E20" t="s">
         <v>283</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
         <v>287</v>
@@ -5288,10 +5288,10 @@
         <v>306</v>
       </c>
       <c r="I20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="K20" t="n">
         <v>1.0</v>
@@ -5303,43 +5303,43 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="X20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>11.0</v>
       </c>
-      <c r="Y20" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>64.7</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="21">
@@ -5347,13 +5347,13 @@
         <v>184</v>
       </c>
       <c r="B21" t="n">
-        <v>769.0</v>
+        <v>517.0</v>
       </c>
       <c r="C21" t="s">
         <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E21" t="s">
         <v>283</v>
@@ -5368,10 +5368,10 @@
         <v>307</v>
       </c>
       <c r="I21" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J21" t="n">
-        <v>7.9</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>1.0</v>
@@ -5383,43 +5383,43 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R21" t="n">
         <v>6.0</v>
       </c>
-      <c r="O21" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>8.0</v>
-      </c>
       <c r="S21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>6.0</v>
       </c>
-      <c r="T21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10.0</v>
-      </c>
       <c r="Z21" t="n">
-        <v>63.0</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="22">
@@ -5427,7 +5427,7 @@
         <v>185</v>
       </c>
       <c r="B22" t="n">
-        <v>1226.0</v>
+        <v>774.0</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -5436,7 +5436,7 @@
         <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F22" t="s">
         <v>96</v>
@@ -5448,10 +5448,10 @@
         <v>308</v>
       </c>
       <c r="I22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J22" t="n">
-        <v>3.0</v>
+        <v>8.9</v>
       </c>
       <c r="K22" t="n">
         <v>1.0</v>
@@ -5463,43 +5463,43 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="O22" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="P22" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V22" t="n">
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>50.0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="23">
@@ -5507,16 +5507,16 @@
         <v>186</v>
       </c>
       <c r="B23" t="n">
-        <v>1360.0</v>
+        <v>1116.0</v>
       </c>
       <c r="C23" t="s">
         <v>234</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F23" t="s">
         <v>96</v>
@@ -5528,10 +5528,10 @@
         <v>309</v>
       </c>
       <c r="I23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="K23" t="n">
         <v>1.0</v>
@@ -5543,22 +5543,22 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O23" t="n">
         <v>4.0</v>
       </c>
-      <c r="O23" t="n">
-        <v>3.0</v>
-      </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.0</v>
+        <v>35.0</v>
       </c>
       <c r="R23" t="n">
         <v>2.0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -5570,16 +5570,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="X23" t="n">
         <v>4.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>100.0</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="24">
@@ -5587,16 +5587,16 @@
         <v>187</v>
       </c>
       <c r="B24" t="n">
-        <v>2175.0</v>
+        <v>1234.0</v>
       </c>
       <c r="C24" t="s">
         <v>235</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F24" t="s">
         <v>96</v>
@@ -5608,10 +5608,10 @@
         <v>310</v>
       </c>
       <c r="I24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J24" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -5623,43 +5623,43 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="O24" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="P24" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V24" t="n">
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="X24" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>48.4</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="25">
@@ -5667,19 +5667,19 @@
         <v>188</v>
       </c>
       <c r="B25" t="n">
-        <v>16.0</v>
+        <v>1368.0</v>
       </c>
       <c r="C25" t="s">
         <v>236</v>
       </c>
       <c r="D25" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
         <v>287</v>
@@ -5688,13 +5688,13 @@
         <v>311</v>
       </c>
       <c r="I25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -5703,25 +5703,25 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="O25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R25" t="n">
         <v>2.0</v>
       </c>
-      <c r="P25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.0</v>
-      </c>
       <c r="S25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -5730,16 +5730,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="X25" t="n">
         <v>5.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>41.7</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="26">
@@ -5747,19 +5747,19 @@
         <v>189</v>
       </c>
       <c r="B26" t="n">
-        <v>201.0</v>
+        <v>2190.0</v>
       </c>
       <c r="C26" t="s">
         <v>237</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
         <v>287</v>
@@ -5768,37 +5768,37 @@
         <v>312</v>
       </c>
       <c r="I26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1</v>
+        <v>10.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
@@ -5810,16 +5810,16 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z26" t="e">
-        <v>#N/A</v>
+        <v>17.0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>46.9</v>
       </c>
     </row>
     <row r="27">
@@ -5827,13 +5827,13 @@
         <v>190</v>
       </c>
       <c r="B27" t="n">
-        <v>239.0</v>
+        <v>16.0</v>
       </c>
       <c r="C27" t="s">
         <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E27" t="s">
         <v>282</v>
@@ -5851,7 +5851,7 @@
         <v>342</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
@@ -5863,43 +5863,43 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="n">
         <v>4.0</v>
       </c>
-      <c r="R27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.0</v>
-      </c>
       <c r="X27" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z27" t="e">
-        <v>#N/A</v>
+        <v>7.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="28">
@@ -5907,13 +5907,13 @@
         <v>191</v>
       </c>
       <c r="B28" t="n">
-        <v>343.0</v>
+        <v>202.0</v>
       </c>
       <c r="C28" t="s">
         <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
         <v>283</v>
@@ -5928,37 +5928,37 @@
         <v>314</v>
       </c>
       <c r="I28" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="O28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P28" t="n">
         <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="S28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -5970,16 +5970,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z28" t="n">
-        <v>100.0</v>
+      <c r="Z28" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29">
@@ -5987,16 +5987,16 @@
         <v>192</v>
       </c>
       <c r="B29" t="n">
-        <v>354.0</v>
+        <v>240.0</v>
       </c>
       <c r="C29" t="s">
         <v>240</v>
       </c>
       <c r="D29" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F29" t="s">
         <v>94</v>
@@ -6008,10 +6008,10 @@
         <v>315</v>
       </c>
       <c r="I29" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -6023,7 +6023,7 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O29" t="n">
         <v>0.0</v>
@@ -6032,13 +6032,13 @@
         <v>0.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R29" t="n">
         <v>0.0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -6050,16 +6050,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X29" t="n">
         <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30">
@@ -6067,16 +6067,16 @@
         <v>193</v>
       </c>
       <c r="B30" t="n">
-        <v>438.0</v>
+        <v>344.0</v>
       </c>
       <c r="C30" t="s">
         <v>241</v>
       </c>
       <c r="D30" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F30" t="s">
         <v>94</v>
@@ -6088,10 +6088,10 @@
         <v>316</v>
       </c>
       <c r="I30" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J30" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -6103,19 +6103,19 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O30" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="S30" t="n">
         <v>2.0</v>
@@ -6130,16 +6130,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="X30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>28.6</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="31">
@@ -6147,16 +6147,16 @@
         <v>194</v>
       </c>
       <c r="B31" t="n">
-        <v>915.0</v>
+        <v>355.0</v>
       </c>
       <c r="C31" t="s">
         <v>242</v>
       </c>
       <c r="D31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
@@ -6168,58 +6168,58 @@
         <v>317</v>
       </c>
       <c r="I31" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="J31" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="O31" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z31" t="n">
         <v>25.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>66.7</v>
       </c>
     </row>
     <row r="32">
@@ -6227,13 +6227,13 @@
         <v>195</v>
       </c>
       <c r="B32" t="n">
-        <v>1167.0</v>
+        <v>439.0</v>
       </c>
       <c r="C32" t="s">
         <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E32" t="s">
         <v>281</v>
@@ -6248,10 +6248,10 @@
         <v>318</v>
       </c>
       <c r="I32" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J32" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
@@ -6263,25 +6263,25 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="O32" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="P32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S32" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q32" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5.0</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -6293,13 +6293,13 @@
         <v>17.0</v>
       </c>
       <c r="X32" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>71.4</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
@@ -6307,16 +6307,16 @@
         <v>196</v>
       </c>
       <c r="B33" t="n">
-        <v>1469.0</v>
+        <v>1173.0</v>
       </c>
       <c r="C33" t="s">
         <v>244</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
@@ -6328,10 +6328,10 @@
         <v>319</v>
       </c>
       <c r="I33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
@@ -6343,25 +6343,25 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q33" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R33" t="n">
         <v>4.0</v>
       </c>
-      <c r="R33" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S33" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
@@ -6370,16 +6370,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="34">
@@ -6387,16 +6387,16 @@
         <v>197</v>
       </c>
       <c r="B34" t="n">
-        <v>1560.0</v>
+        <v>1479.0</v>
       </c>
       <c r="C34" t="s">
         <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F34" t="s">
         <v>94</v>
@@ -6408,10 +6408,10 @@
         <v>320</v>
       </c>
       <c r="I34" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J34" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
@@ -6426,19 +6426,19 @@
         <v>6.0</v>
       </c>
       <c r="O34" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -6450,16 +6450,16 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="X34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>28.6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -6467,16 +6467,16 @@
         <v>198</v>
       </c>
       <c r="B35" t="n">
-        <v>1715.0</v>
+        <v>1571.0</v>
       </c>
       <c r="C35" t="s">
         <v>246</v>
       </c>
       <c r="D35" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -6488,10 +6488,10 @@
         <v>321</v>
       </c>
       <c r="I35" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J35" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -6503,43 +6503,43 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="n">
         <v>8.0</v>
       </c>
-      <c r="O35" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>31.0</v>
-      </c>
       <c r="X35" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>33.3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="36">
@@ -6547,16 +6547,16 @@
         <v>199</v>
       </c>
       <c r="B36" t="n">
-        <v>2066.0</v>
+        <v>1726.0</v>
       </c>
       <c r="C36" t="s">
         <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
         <v>94</v>
@@ -6568,10 +6568,10 @@
         <v>322</v>
       </c>
       <c r="I36" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J36" t="n">
-        <v>4.0</v>
+        <v>9.3</v>
       </c>
       <c r="K36" t="n">
         <v>0.0</v>
@@ -6583,22 +6583,22 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="P36" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.0</v>
+        <v>56.0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="S36" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="T36" t="n">
         <v>0.0</v>
@@ -6607,19 +6607,19 @@
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>11.0</v>
+        <v>33.0</v>
       </c>
       <c r="X36" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>72.2</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
@@ -6627,16 +6627,16 @@
         <v>200</v>
       </c>
       <c r="B37" t="n">
-        <v>2263.0</v>
+        <v>2080.0</v>
       </c>
       <c r="C37" t="s">
         <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F37" t="s">
         <v>94</v>
@@ -6648,10 +6648,10 @@
         <v>323</v>
       </c>
       <c r="I37" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1</v>
+        <v>5.0</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -6663,22 +6663,22 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P37" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -6687,19 +6687,19 @@
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z37" t="e">
-        <v>#N/A</v>
+        <v>10.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="38">
@@ -6707,19 +6707,19 @@
         <v>201</v>
       </c>
       <c r="B38" t="n">
-        <v>30.0</v>
+        <v>2278.0</v>
       </c>
       <c r="C38" t="s">
         <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
         <v>287</v>
@@ -6728,10 +6728,10 @@
         <v>324</v>
       </c>
       <c r="I38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -6758,7 +6758,7 @@
         <v>0.0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T38" t="n">
         <v>0.0</v>
@@ -6770,7 +6770,7 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X38" t="n">
         <v>0.0</v>
@@ -6787,16 +6787,16 @@
         <v>202</v>
       </c>
       <c r="B39" t="n">
-        <v>102.0</v>
+        <v>30.0</v>
       </c>
       <c r="C39" t="s">
         <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F39" t="s">
         <v>96</v>
@@ -6808,10 +6808,10 @@
         <v>325</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -6838,7 +6838,7 @@
         <v>0.0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T39" t="n">
         <v>0.0</v>
@@ -6856,10 +6856,10 @@
         <v>0.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z39" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40">
@@ -6867,16 +6867,16 @@
         <v>203</v>
       </c>
       <c r="B40" t="n">
-        <v>527.0</v>
+        <v>102.0</v>
       </c>
       <c r="C40" t="s">
         <v>251</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
@@ -6888,10 +6888,10 @@
         <v>326</v>
       </c>
       <c r="I40" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="J40" t="n">
-        <v>5.1</v>
+        <v>0.1</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -6903,43 +6903,43 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="O40" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="R40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>2.0</v>
       </c>
-      <c r="S40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Z40" t="n">
-        <v>72.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -6947,16 +6947,16 @@
         <v>204</v>
       </c>
       <c r="B41" t="n">
-        <v>555.0</v>
+        <v>529.0</v>
       </c>
       <c r="C41" t="s">
         <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F41" t="s">
         <v>96</v>
@@ -6968,10 +6968,10 @@
         <v>327</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J41" t="n">
-        <v>9.0</v>
+        <v>5.1</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -6983,22 +6983,22 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="O41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R41" t="n">
         <v>2.0</v>
       </c>
-      <c r="P41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S41" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T41" t="n">
         <v>0.0</v>
@@ -7010,16 +7010,16 @@
         <v>0.0</v>
       </c>
       <c r="W41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="X41" t="n">
         <v>8.0</v>
       </c>
-      <c r="X41" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>50.0</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="42">
@@ -7027,16 +7027,16 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>815.0</v>
+        <v>558.0</v>
       </c>
       <c r="C42" t="s">
         <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F42" t="s">
         <v>96</v>
@@ -7048,10 +7048,10 @@
         <v>328</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J42" t="n">
-        <v>2.5</v>
+        <v>9.0</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -7063,22 +7063,22 @@
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" t="n">
         <v>2.0</v>
       </c>
-      <c r="O42" t="n">
-        <v>6.0</v>
-      </c>
       <c r="P42" t="n">
         <v>0.0</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="R42" t="n">
         <v>0.0</v>
       </c>
       <c r="S42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T42" t="n">
         <v>0.0</v>
@@ -7090,16 +7090,16 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="X42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z42" t="n">
-        <v>33.3</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="43">
@@ -7107,16 +7107,16 @@
         <v>206</v>
       </c>
       <c r="B43" t="n">
-        <v>1041.0</v>
+        <v>820.0</v>
       </c>
       <c r="C43" t="s">
         <v>254</v>
       </c>
       <c r="D43" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F43" t="s">
         <v>96</v>
@@ -7128,10 +7128,10 @@
         <v>329</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J43" t="n">
-        <v>7.0</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -7143,40 +7143,40 @@
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="O43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W43" t="n">
         <v>5.0</v>
       </c>
-      <c r="P43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>23.0</v>
-      </c>
       <c r="X43" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y43" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z43" t="n">
         <v>33.3</v>
@@ -7187,16 +7187,16 @@
         <v>207</v>
       </c>
       <c r="B44" t="n">
-        <v>1111.0</v>
+        <v>1046.0</v>
       </c>
       <c r="C44" t="s">
         <v>255</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F44" t="s">
         <v>96</v>
@@ -7208,10 +7208,10 @@
         <v>330</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J44" t="n">
-        <v>5.2</v>
+        <v>8.0</v>
       </c>
       <c r="K44" t="n">
         <v>0.0</v>
@@ -7223,43 +7223,43 @@
         <v>0.0</v>
       </c>
       <c r="N44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O44" t="n">
         <v>6.0</v>
       </c>
-      <c r="O44" t="n">
-        <v>2.0</v>
-      </c>
       <c r="P44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q44" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T44" t="n">
         <v>0.0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V44" t="n">
         <v>0.0</v>
       </c>
       <c r="W44" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="X44" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z44" t="n">
-        <v>40.0</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="45">
@@ -7267,7 +7267,7 @@
         <v>208</v>
       </c>
       <c r="B45" t="n">
-        <v>1349.0</v>
+        <v>1357.0</v>
       </c>
       <c r="C45" t="s">
         <v>256</v>
@@ -7276,7 +7276,7 @@
         <v>277</v>
       </c>
       <c r="E45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F45" t="s">
         <v>96</v>
@@ -7347,13 +7347,13 @@
         <v>209</v>
       </c>
       <c r="B46" t="n">
-        <v>1668.0</v>
+        <v>1679.0</v>
       </c>
       <c r="C46" t="s">
         <v>257</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
         <v>285</v>
@@ -7368,10 +7368,10 @@
         <v>332</v>
       </c>
       <c r="I46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -7413,13 +7413,13 @@
         <v>4.0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y46" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z46" t="e">
-        <v>#N/A</v>
+      <c r="Z46" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="47">
@@ -7427,7 +7427,7 @@
         <v>210</v>
       </c>
       <c r="B47" t="n">
-        <v>1805.0</v>
+        <v>1816.0</v>
       </c>
       <c r="C47" t="s">
         <v>258</v>
@@ -7507,7 +7507,7 @@
         <v>211</v>
       </c>
       <c r="B48" t="n">
-        <v>2198.0</v>
+        <v>2213.0</v>
       </c>
       <c r="C48" t="s">
         <v>259</v>
@@ -7516,7 +7516,7 @@
         <v>269</v>
       </c>
       <c r="E48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F48" t="s">
         <v>96</v>
@@ -7531,35 +7531,35 @@
         <v>343</v>
       </c>
       <c r="J48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O48" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2.0</v>
       </c>
       <c r="P48" t="n">
         <v>2.0</v>
       </c>
       <c r="Q48" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="R48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S48" t="n">
         <v>3.0</v>
       </c>
-      <c r="S48" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T48" t="n">
         <v>0.0</v>
       </c>
@@ -7570,16 +7570,16 @@
         <v>0.0</v>
       </c>
       <c r="W48" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="X48" t="n">
         <v>1.0</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z48" t="n">
-        <v>33.3</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="49">
@@ -7587,7 +7587,7 @@
         <v>212</v>
       </c>
       <c r="B49" t="n">
-        <v>2238.0</v>
+        <v>2253.0</v>
       </c>
       <c r="C49" t="s">
         <v>260</v>
@@ -7596,7 +7596,7 @@
         <v>279</v>
       </c>
       <c r="E49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
@@ -7611,7 +7611,7 @@
         <v>347</v>
       </c>
       <c r="J49" t="n">
-        <v>8.4</v>
+        <v>9.3</v>
       </c>
       <c r="K49" t="n">
         <v>0.0</v>
@@ -7626,19 +7626,19 @@
         <v>7.0</v>
       </c>
       <c r="O49" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="P49" t="n">
         <v>1.0</v>
       </c>
       <c r="Q49" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="R49" t="n">
         <v>2.0</v>
       </c>
       <c r="S49" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="T49" t="n">
         <v>0.0</v>
@@ -7650,16 +7650,16 @@
         <v>0.0</v>
       </c>
       <c r="W49" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="X49" t="n">
         <v>3.0</v>
       </c>
       <c r="Y49" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z49" t="n">
         <v>15.0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -7779,19 +7779,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" t="n">
-        <v>2175.0</v>
+        <v>2190.0</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
         <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
         <v>96</v>
@@ -7800,22 +7800,22 @@
         <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I2" t="s">
         <v>343</v>
       </c>
       <c r="J2" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="L2" t="n">
-        <v>903.0</v>
+        <v>975.0</v>
       </c>
       <c r="M2" t="n">
-        <v>10.0</v>
+        <v>10.8</v>
       </c>
       <c r="N2" t="n">
         <v>6.0</v>
@@ -7842,60 +7842,60 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="W2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X2" t="n">
         <v>0.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.0</v>
+        <v>6.1</v>
       </c>
       <c r="Z2" t="n">
         <v>7.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AD2" t="n">
         <v>0.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B3" t="n">
-        <v>1715.0</v>
+        <v>1726.0</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
         <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
         <v>94</v>
@@ -7904,22 +7904,22 @@
         <v>287</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K3" t="n">
         <v>10.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>9.0</v>
-      </c>
       <c r="L3" t="n">
-        <v>752.0</v>
+        <v>833.0</v>
       </c>
       <c r="M3" t="n">
-        <v>8.4</v>
+        <v>9.3</v>
       </c>
       <c r="N3" t="n">
         <v>5.0</v>
@@ -7946,43 +7946,43 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -7990,7 +7990,7 @@
         <v>211</v>
       </c>
       <c r="B4" t="n">
-        <v>2198.0</v>
+        <v>2213.0</v>
       </c>
       <c r="C4" t="s">
         <v>259</v>
@@ -7999,7 +7999,7 @@
         <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
         <v>96</v>
@@ -8014,29 +8014,29 @@
         <v>343</v>
       </c>
       <c r="J4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.0</v>
       </c>
-      <c r="L4" t="n">
-        <v>356.0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>4.0</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R4" t="n">
         <v>0.0</v>
       </c>
@@ -8050,60 +8050,60 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="X4" t="n">
         <v>0.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AE4" t="n">
         <v>1.01</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="AG4" t="n">
         <v>1.01</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B5" t="n">
-        <v>915.0</v>
+        <v>1173.0</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -8112,138 +8112,138 @@
         <v>287</v>
       </c>
       <c r="H5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J5" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="K5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>6.0</v>
       </c>
-      <c r="L5" t="n">
-        <v>575.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R5" t="n">
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>37.0</v>
+        <v>88.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.63</v>
+        <v>0.83</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.63</v>
+        <v>0.83</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.19</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B6" t="n">
-        <v>1428.0</v>
+        <v>2253.0</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>287</v>
       </c>
       <c r="H6" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="I6" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="J6" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="L6" t="n">
-        <v>531.0</v>
+        <v>838.0</v>
       </c>
       <c r="M6" t="n">
-        <v>5.9</v>
+        <v>9.3</v>
       </c>
       <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2.0</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P6" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R6" t="n">
         <v>0.0</v>
@@ -8252,194 +8252,194 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.0</v>
+        <v>48.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>24.0</v>
+        <v>73.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B7" t="n">
-        <v>1885.0</v>
+        <v>16.0</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>287</v>
       </c>
       <c r="H7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J7" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L7" t="n">
-        <v>581.0</v>
+        <v>377.0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>26.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0</v>
+        <v>0.24</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.31</v>
+        <v>0.72</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.07</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B8" t="n">
-        <v>2238.0</v>
+        <v>920.0</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>287</v>
       </c>
       <c r="H8" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J8" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="K8" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="L8" t="n">
-        <v>753.0</v>
+        <v>665.0</v>
       </c>
       <c r="M8" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
@@ -8457,66 +8457,66 @@
         <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>66.0</v>
+        <v>39.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0</v>
+        <v>1438.0</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E9" t="s">
         <v>281</v>
@@ -8528,138 +8528,138 @@
         <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K9" t="n">
         <v>6.0</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.0</v>
-      </c>
       <c r="L9" t="n">
-        <v>352.0</v>
+        <v>531.0</v>
       </c>
       <c r="M9" t="n">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="N9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" t="n">
         <v>2.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.26</v>
+        <v>0.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0</v>
+        <v>0.34</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B10" t="n">
-        <v>438.0</v>
+        <v>1897.0</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>287</v>
       </c>
       <c r="H10" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="I10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="L10" t="n">
-        <v>443.0</v>
+        <v>667.0</v>
       </c>
       <c r="M10" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O10" t="n">
         <v>0.0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R10" t="n">
         <v>0.0</v>
@@ -8668,66 +8668,66 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>55.0</v>
+        <v>24.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AD10" t="n">
         <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B11" t="n">
-        <v>722.0</v>
+        <v>439.0</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
@@ -8736,22 +8736,22 @@
         <v>287</v>
       </c>
       <c r="H11" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="I11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J11" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="K11" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L11" t="n">
-        <v>704.0</v>
+        <v>507.0</v>
       </c>
       <c r="M11" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
@@ -8772,66 +8772,66 @@
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>42.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.0</v>
+        <v>61.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AD11" t="n">
         <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B12" t="n">
-        <v>747.0</v>
+        <v>726.0</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -8840,31 +8840,31 @@
         <v>287</v>
       </c>
       <c r="H12" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="K12" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="L12" t="n">
-        <v>360.0</v>
+        <v>794.0</v>
       </c>
       <c r="M12" t="n">
-        <v>4.0</v>
+        <v>8.8</v>
       </c>
       <c r="N12" t="n">
         <v>1.0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -8876,66 +8876,66 @@
         <v>0.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1</v>
+        <v>1.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.0</v>
+        <v>54.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B13" t="n">
-        <v>1167.0</v>
+        <v>751.0</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
         <v>94</v>
@@ -8944,31 +8944,31 @@
         <v>287</v>
       </c>
       <c r="H13" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="I13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J13" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L13" t="n">
-        <v>569.0</v>
+        <v>360.0</v>
       </c>
       <c r="M13" t="n">
-        <v>6.3</v>
+        <v>4.0</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -8980,66 +8980,66 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.0</v>
+        <v>0.4</v>
       </c>
       <c r="W13" t="n">
-        <v>3.0</v>
+        <v>0.4</v>
       </c>
       <c r="X13" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>40.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>83.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.47</v>
+        <v>0.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B14" t="n">
-        <v>1560.0</v>
+        <v>1571.0</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s">
         <v>272</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F14" t="s">
         <v>94</v>
@@ -9048,22 +9048,22 @@
         <v>287</v>
       </c>
       <c r="H14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I14" t="s">
         <v>343</v>
       </c>
       <c r="J14" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K14" t="n">
         <v>5.0</v>
       </c>
       <c r="L14" t="n">
-        <v>390.0</v>
+        <v>399.0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="N14" t="n">
         <v>1.0</v>
@@ -9090,25 +9090,25 @@
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
         <v>0.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="AC14" t="n">
         <v>0.23</v>
@@ -9126,18 +9126,18 @@
         <v>0.23</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="n">
-        <v>1633.0</v>
+        <v>1644.0</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
         <v>266</v>
@@ -9152,22 +9152,22 @@
         <v>287</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K15" t="n">
         <v>7.0</v>
       </c>
-      <c r="K15" t="n">
-        <v>6.0</v>
-      </c>
       <c r="L15" t="n">
-        <v>541.0</v>
+        <v>631.0</v>
       </c>
       <c r="M15" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="N15" t="n">
         <v>1.0</v>
@@ -9206,48 +9206,48 @@
         <v>1.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="AB15" t="n">
         <v>1.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AD15" t="n">
         <v>0.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="n">
-        <v>1745.0</v>
+        <v>1756.0</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
         <v>268</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -9256,31 +9256,31 @@
         <v>287</v>
       </c>
       <c r="H16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K16" t="n">
         <v>9.0</v>
       </c>
-      <c r="K16" t="n">
-        <v>8.0</v>
-      </c>
       <c r="L16" t="n">
-        <v>641.0</v>
+        <v>731.0</v>
       </c>
       <c r="M16" t="n">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="N16" t="n">
         <v>1.0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -9304,37 +9304,37 @@
         <v>1.2</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>60.0</v>
+        <v>67.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
@@ -9342,13 +9342,13 @@
         <v>173</v>
       </c>
       <c r="B17" t="n">
-        <v>357.0</v>
+        <v>358.0</v>
       </c>
       <c r="C17" t="s">
         <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
         <v>284</v>
@@ -9366,16 +9366,16 @@
         <v>343</v>
       </c>
       <c r="J17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K17" t="n">
         <v>11.0</v>
       </c>
-      <c r="K17" t="n">
-        <v>10.0</v>
-      </c>
       <c r="L17" t="n">
-        <v>901.0</v>
+        <v>991.0</v>
       </c>
       <c r="M17" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
@@ -9402,60 +9402,60 @@
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X17" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="AB17" t="n">
         <v>55.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD17" t="n">
         <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" t="n">
-        <v>465.0</v>
+        <v>466.0</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -9464,31 +9464,31 @@
         <v>287</v>
       </c>
       <c r="H18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J18" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
       </c>
       <c r="L18" t="n">
-        <v>362.0</v>
+        <v>380.0</v>
       </c>
       <c r="M18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P18" t="n">
         <v>4.0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.0</v>
       </c>
       <c r="Q18" t="n">
         <v>1.0</v>
@@ -9512,34 +9512,34 @@
         <v>0.5</v>
       </c>
       <c r="X18" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA18" t="n">
         <v>14.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AH18" t="n">
         <v>0.13</v>
@@ -9550,7 +9550,7 @@
         <v>208</v>
       </c>
       <c r="B19" t="n">
-        <v>1349.0</v>
+        <v>1357.0</v>
       </c>
       <c r="C19" t="s">
         <v>256</v>
@@ -9559,7 +9559,7 @@
         <v>277</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
@@ -9651,19 +9651,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B20" t="n">
-        <v>1360.0</v>
+        <v>1368.0</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
         <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F20" t="s">
         <v>96</v>
@@ -9672,19 +9672,19 @@
         <v>287</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K20" t="n">
         <v>4.0</v>
       </c>
       <c r="L20" t="n">
-        <v>366.0</v>
+        <v>371.0</v>
       </c>
       <c r="M20" t="n">
         <v>4.1</v>
@@ -9732,22 +9732,22 @@
         <v>12.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AD20" t="n">
         <v>0.49</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="AH20" t="n">
         <v>0.08</v>
@@ -9755,16 +9755,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B21" t="n">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
         <v>283</v>
@@ -9776,7 +9776,7 @@
         <v>287</v>
       </c>
       <c r="H21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I21" t="s">
         <v>347</v>
@@ -9859,19 +9859,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B22" t="n">
-        <v>239.0</v>
+        <v>240.0</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
         <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
         <v>94</v>
@@ -9880,7 +9880,7 @@
         <v>287</v>
       </c>
       <c r="H22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I22" t="s">
         <v>342</v>
@@ -9963,16 +9963,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B23" t="n">
-        <v>343.0</v>
+        <v>344.0</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
         <v>283</v>
@@ -9984,7 +9984,7 @@
         <v>287</v>
       </c>
       <c r="H23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I23" t="s">
         <v>344</v>
@@ -10067,19 +10067,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B24" t="n">
-        <v>354.0</v>
+        <v>355.0</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F24" t="s">
         <v>94</v>
@@ -10088,22 +10088,22 @@
         <v>287</v>
       </c>
       <c r="H24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I24" t="s">
         <v>348</v>
       </c>
       <c r="J24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L24" t="n">
-        <v>4.0</v>
+        <v>69.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -10130,16 +10130,16 @@
         <v>0.0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Z24" t="n">
         <v>0.0</v>
@@ -10148,7 +10148,7 @@
         <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
@@ -10166,21 +10166,21 @@
         <v>0.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" t="n">
-        <v>666.0</v>
+        <v>670.0</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E25" t="s">
         <v>283</v>
@@ -10192,22 +10192,22 @@
         <v>287</v>
       </c>
       <c r="H25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I25" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K25" t="n">
         <v>8.0</v>
       </c>
-      <c r="K25" t="n">
-        <v>7.0</v>
-      </c>
       <c r="L25" t="n">
-        <v>604.0</v>
+        <v>684.0</v>
       </c>
       <c r="M25" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -10249,10 +10249,10 @@
         <v>9.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
@@ -10275,19 +10275,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B26" t="n">
-        <v>1021.0</v>
+        <v>1026.0</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
         <v>266</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F26" t="s">
         <v>94</v>
@@ -10296,7 +10296,7 @@
         <v>287</v>
       </c>
       <c r="H26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I26" t="s">
         <v>342</v>
@@ -10379,19 +10379,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B27" t="n">
-        <v>1206.0</v>
+        <v>1213.0</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
         <v>267</v>
       </c>
       <c r="E27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F27" t="s">
         <v>94</v>
@@ -10400,22 +10400,22 @@
         <v>287</v>
       </c>
       <c r="H27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I27" t="s">
         <v>344</v>
       </c>
       <c r="J27" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K27" t="n">
         <v>5.0</v>
       </c>
       <c r="L27" t="n">
-        <v>518.0</v>
+        <v>544.0</v>
       </c>
       <c r="M27" t="n">
-        <v>5.8</v>
+        <v>6.0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -10448,19 +10448,19 @@
         <v>0.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y27" t="n">
         <v>1.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
@@ -10483,16 +10483,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" t="n">
-        <v>1258.0</v>
+        <v>1266.0</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -10504,22 +10504,22 @@
         <v>287</v>
       </c>
       <c r="H28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I28" t="s">
         <v>345</v>
       </c>
       <c r="J28" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K28" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L28" t="n">
-        <v>900.0</v>
+        <v>990.0</v>
       </c>
       <c r="M28" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -10587,13 +10587,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B29" t="n">
-        <v>1469.0</v>
+        <v>1479.0</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
         <v>269</v>
@@ -10608,22 +10608,22 @@
         <v>287</v>
       </c>
       <c r="H29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J29" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
       </c>
       <c r="L29" t="n">
-        <v>287.0</v>
+        <v>296.0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -10656,13 +10656,13 @@
         <v>0.3</v>
       </c>
       <c r="X29" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA29" t="n">
         <v>22.0</v>
@@ -10674,16 +10674,16 @@
         <v>0.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AF29" t="n">
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AH29" t="n">
         <v>0.08</v>
@@ -10694,13 +10694,13 @@
         <v>171</v>
       </c>
       <c r="B30" t="n">
-        <v>2056.0</v>
+        <v>2070.0</v>
       </c>
       <c r="C30" t="s">
         <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
         <v>283</v>
@@ -10795,13 +10795,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B31" t="n">
-        <v>2066.0</v>
+        <v>2080.0</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
         <v>273</v>
@@ -10816,22 +10816,22 @@
         <v>287</v>
       </c>
       <c r="H31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J31" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K31" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L31" t="n">
-        <v>360.0</v>
+        <v>450.0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -10899,13 +10899,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" t="n">
-        <v>2082.0</v>
+        <v>2097.0</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
         <v>267</v>
@@ -10920,22 +10920,22 @@
         <v>287</v>
       </c>
       <c r="H32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I32" t="s">
         <v>342</v>
       </c>
       <c r="J32" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K32" t="n">
         <v>6.0</v>
       </c>
       <c r="L32" t="n">
-        <v>543.0</v>
+        <v>553.0</v>
       </c>
       <c r="M32" t="n">
-        <v>6.0</v>
+        <v>6.1</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -11003,19 +11003,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B33" t="n">
-        <v>2263.0</v>
+        <v>2278.0</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
@@ -11024,7 +11024,7 @@
         <v>287</v>
       </c>
       <c r="H33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I33" t="s">
         <v>347</v>
@@ -11107,19 +11107,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B34" t="n">
         <v>30.0</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
         <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F34" t="s">
         <v>96</v>
@@ -11128,7 +11128,7 @@
         <v>287</v>
       </c>
       <c r="H34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I34" t="s">
         <v>349</v>
@@ -11211,19 +11211,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B35" t="n">
         <v>102.0</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F35" t="s">
         <v>96</v>
@@ -11232,7 +11232,7 @@
         <v>287</v>
       </c>
       <c r="H35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I35" t="s">
         <v>347</v>
@@ -11318,13 +11318,13 @@
         <v>172</v>
       </c>
       <c r="B36" t="n">
-        <v>310.0</v>
+        <v>311.0</v>
       </c>
       <c r="C36" t="s">
         <v>220</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E36" t="s">
         <v>283</v>
@@ -11419,16 +11419,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B37" t="n">
-        <v>515.0</v>
+        <v>517.0</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E37" t="s">
         <v>283</v>
@@ -11440,19 +11440,19 @@
         <v>287</v>
       </c>
       <c r="H37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
         <v>346</v>
       </c>
       <c r="J37" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K37" t="n">
         <v>3.0</v>
       </c>
       <c r="L37" t="n">
-        <v>311.0</v>
+        <v>315.0</v>
       </c>
       <c r="M37" t="n">
         <v>3.5</v>
@@ -11523,13 +11523,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B38" t="n">
-        <v>527.0</v>
+        <v>529.0</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D38" t="s">
         <v>275</v>
@@ -11544,10 +11544,10 @@
         <v>287</v>
       </c>
       <c r="H38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J38" t="n">
         <v>7.0</v>
@@ -11627,16 +11627,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B39" t="n">
-        <v>555.0</v>
+        <v>558.0</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
         <v>285</v>
@@ -11648,7 +11648,7 @@
         <v>287</v>
       </c>
       <c r="H39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I39" t="s">
         <v>342</v>
@@ -11731,19 +11731,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B40" t="n">
-        <v>690.0</v>
+        <v>694.0</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
@@ -11752,10 +11752,10 @@
         <v>287</v>
       </c>
       <c r="H40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J40" t="n">
         <v>9.0</v>
@@ -11835,16 +11835,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B41" t="n">
-        <v>769.0</v>
+        <v>774.0</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E41" t="s">
         <v>283</v>
@@ -11856,22 +11856,22 @@
         <v>287</v>
       </c>
       <c r="H41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K41" t="n">
         <v>9.0</v>
       </c>
-      <c r="K41" t="n">
-        <v>8.0</v>
-      </c>
       <c r="L41" t="n">
-        <v>710.0</v>
+        <v>800.0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -11904,16 +11904,16 @@
         <v>0.6</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB41" t="n">
         <v>2.0</v>
@@ -11934,24 +11934,24 @@
         <v>0.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B42" t="n">
-        <v>815.0</v>
+        <v>820.0</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D42" t="s">
         <v>276</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F42" t="s">
         <v>96</v>
@@ -11960,10 +11960,10 @@
         <v>287</v>
       </c>
       <c r="H42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J42" t="n">
         <v>4.0</v>
@@ -12043,16 +12043,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B43" t="n">
-        <v>1041.0</v>
+        <v>1046.0</v>
       </c>
       <c r="C43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E43" t="s">
         <v>283</v>
@@ -12064,22 +12064,22 @@
         <v>287</v>
       </c>
       <c r="H43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I43" t="s">
         <v>343</v>
       </c>
       <c r="J43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K43" t="n">
         <v>8.0</v>
       </c>
-      <c r="K43" t="n">
-        <v>7.0</v>
-      </c>
       <c r="L43" t="n">
-        <v>627.0</v>
+        <v>717.0</v>
       </c>
       <c r="M43" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -12118,7 +12118,7 @@
         <v>0.1</v>
       </c>
       <c r="Z43" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA43" t="n">
         <v>38.0</v>
@@ -12147,19 +12147,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B44" t="n">
-        <v>1111.0</v>
+        <v>1116.0</v>
       </c>
       <c r="C44" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D44" t="s">
         <v>268</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F44" t="s">
         <v>96</v>
@@ -12168,22 +12168,22 @@
         <v>287</v>
       </c>
       <c r="H44" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J44" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L44" t="n">
-        <v>470.0</v>
+        <v>560.0</v>
       </c>
       <c r="M44" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -12204,66 +12204,66 @@
         <v>0.0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U44" t="n">
         <v>0.0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="W44" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="X44" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA44" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB44" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="AC44" t="n">
         <v>0.0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="AF44" t="n">
         <v>0.0</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45" t="n">
-        <v>1205.0</v>
+        <v>1212.0</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F45" t="s">
         <v>96</v>
@@ -12272,22 +12272,22 @@
         <v>287</v>
       </c>
       <c r="H45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J45" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K45" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L45" t="n">
-        <v>773.0</v>
+        <v>863.0</v>
       </c>
       <c r="M45" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -12329,7 +12329,7 @@
         <v>11.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="AB45" t="n">
         <v>8.0</v>
@@ -12355,19 +12355,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B46" t="n">
-        <v>1226.0</v>
+        <v>1234.0</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F46" t="s">
         <v>96</v>
@@ -12376,10 +12376,10 @@
         <v>287</v>
       </c>
       <c r="H46" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I46" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J46" t="n">
         <v>7.0</v>
@@ -12462,13 +12462,13 @@
         <v>209</v>
       </c>
       <c r="B47" t="n">
-        <v>1668.0</v>
+        <v>1679.0</v>
       </c>
       <c r="C47" t="s">
         <v>257</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
         <v>285</v>
@@ -12483,19 +12483,19 @@
         <v>332</v>
       </c>
       <c r="I47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L47" t="n">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
       <c r="M47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -12566,7 +12566,7 @@
         <v>210</v>
       </c>
       <c r="B48" t="n">
-        <v>1805.0</v>
+        <v>1816.0</v>
       </c>
       <c r="C48" t="s">
         <v>258</v>
@@ -12670,16 +12670,16 @@
         <v>175</v>
       </c>
       <c r="B49" t="n">
-        <v>2070.0</v>
+        <v>2085.0</v>
       </c>
       <c r="C49" t="s">
         <v>223</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
@@ -12691,19 +12691,19 @@
         <v>298</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J49" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K49" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L49" t="n">
-        <v>411.0</v>
+        <v>501.0</v>
       </c>
       <c r="M49" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -12736,37 +12736,37 @@
         <v>0.6</v>
       </c>
       <c r="X49" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z49" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA49" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB49" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC49" t="n">
         <v>0.0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="AF49" t="n">
         <v>0.0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
